--- a/config/target.xlsx
+++ b/config/target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nodejs\eduCoursesAuto\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2405CB76-4D31-4F30-AD72-D5BA1933C080}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6AC8C4-BDE3-4472-B3BB-9250DC161338}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>模版名称</t>
   </si>
@@ -28,52 +28,127 @@
     <t>备注</t>
   </si>
   <si>
+    <t>页码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KA102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenCard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turnplate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiceCard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragMulti3Pic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragMulti4Pic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragMulti4PicSort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangePic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeWordSingleLetter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragMultiLetter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PencilAnimaLetter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawCardNoWord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawCard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger6words</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>TriggerPop</t>
-  </si>
-  <si>
-    <t>Trigger6words</t>
-  </si>
-  <si>
-    <t>DrawCard</t>
-  </si>
-  <si>
-    <t>DrawCardNoWord</t>
-  </si>
-  <si>
-    <t>OpenCard</t>
-  </si>
-  <si>
-    <t>Turnplate</t>
-  </si>
-  <si>
-    <t>Marquee</t>
-  </si>
-  <si>
-    <t>DiceCard</t>
-  </si>
-  <si>
-    <t>DragMulti3Pic</t>
-  </si>
-  <si>
-    <t>DragMulti4Pic</t>
-  </si>
-  <si>
-    <t>DragMulti4PicSort</t>
-  </si>
-  <si>
-    <t>ChangePic</t>
-  </si>
-  <si>
-    <t>ChangeWordSingleLetter</t>
-  </si>
-  <si>
-    <t>DragMultiLetter</t>
-  </si>
-  <si>
-    <t>PencilAnimaLetter</t>
-  </si>
-  <si>
-    <t>页码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecallOpenCard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1静态页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2单词弹卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tatic</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3六词汇卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4左右切卡带文本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5左右切卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6抽卡游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7转盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8跑马灯</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -81,7 +156,227 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>KA102</t>
+    <t>9骰子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10骰子加选图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11图片三拖三</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12图片四拖四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13句子四拖四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14图片三选一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15字母三选一判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16字母四拖二判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17字母大小写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PencilAnima</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18单词书写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseCircle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19三勾一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puzzle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20拼图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragPic8In5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21图片八拖五判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragPic6In4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22图片六拖四判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23八图分两类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatchEntity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24图片六选四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseIn2Word</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25单词二选一两组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>26记忆翻卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WordLink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>27小火车连连看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenCalendar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>28翻翻卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slots</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>29老虎机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatchBone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30小狗吃骨头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseAnswer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31选择题三选一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseIn3Pic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>32图片三勾一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragMultiWord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>33单词四拖二判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeWord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>34单词三选一判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaySound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>35音频播放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerPopGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>36区域弹卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>37微信聊天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadWordPic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>38点读单词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayUFO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>39播放UFO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayLetterSound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40字母音频播放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaySomeSound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>41复数音频播放</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,21 +421,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -196,12 +476,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -508,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -519,16 +793,20 @@
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -536,150 +814,404 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config/target.xlsx
+++ b/config/target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nodejs\eduCoursesAuto\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6AC8C4-BDE3-4472-B3BB-9250DC161338}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1ED680-2900-4C8B-B3B8-AF10F563EEFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>模版名称</t>
   </si>
@@ -33,10 +33,6 @@
   </si>
   <si>
     <t>Dice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KA102</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -152,10 +148,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Dice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>9骰子</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -377,6 +369,63 @@
   </si>
   <si>
     <t>41复数音频播放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC167</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>omePage</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认首页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>omePage</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>42文字摘要</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muli</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +470,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -475,14 +531,147 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -493,6 +682,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AC664D5-D4EE-4179-848E-F055DC5E3B2D}" name="表1" displayName="表1" ref="H2:L23" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{12B5299D-D6CF-4B32-932A-8E0194EA4195}" name="列1" headerRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{32FC1219-7ECB-47D5-B51F-1EDE272804B1}" name="列2" headerRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D723655A-129D-4563-85AD-2458AF33817F}" name="列3"/>
+    <tableColumn id="4" xr3:uid="{64F5CFBC-79C6-47EF-BC78-336E565F8D0F}" name="列4" headerRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{AF34F50B-FBD2-4617-B846-0D39E20E2D7C}" name="列5" headerRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,10 +1001,14 @@
     <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -815,37 +1021,37 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -853,20 +1059,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -874,20 +1080,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3"/>
       <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -895,20 +1101,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -916,20 +1122,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -937,20 +1143,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -958,20 +1164,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -979,20 +1185,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -1000,20 +1206,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -1021,20 +1227,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -1042,20 +1248,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -1063,20 +1269,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -1084,20 +1290,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -1105,20 +1311,20 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -1126,20 +1332,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
@@ -1147,75 +1353,160 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="H19" s="3" t="s">
+      <c r="K20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="H20" s="3" t="s">
+      <c r="K21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="H21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>86</v>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/config/target.xlsx
+++ b/config/target.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nodejs\eduCoursesAuto\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\nodejs\EduAuto\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2405CB76-4D31-4F30-AD72-D5BA1933C080}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>模版名称</t>
   </si>
@@ -28,68 +27,392 @@
     <t>备注</t>
   </si>
   <si>
+    <t>页码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenCard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turnplate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiceCard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragMulti3Pic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragMulti4Pic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragMulti4PicSort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangePic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeWordSingleLetter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragMultiLetter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PencilAnimaLetter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawCardNoWord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawCard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger6words</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>TriggerPop</t>
-  </si>
-  <si>
-    <t>Trigger6words</t>
-  </si>
-  <si>
-    <t>DrawCard</t>
-  </si>
-  <si>
-    <t>DrawCardNoWord</t>
-  </si>
-  <si>
-    <t>OpenCard</t>
-  </si>
-  <si>
-    <t>Turnplate</t>
-  </si>
-  <si>
-    <t>Marquee</t>
-  </si>
-  <si>
-    <t>DiceCard</t>
-  </si>
-  <si>
-    <t>DragMulti3Pic</t>
-  </si>
-  <si>
-    <t>DragMulti4Pic</t>
-  </si>
-  <si>
-    <t>DragMulti4PicSort</t>
-  </si>
-  <si>
-    <t>ChangePic</t>
-  </si>
-  <si>
-    <t>ChangeWordSingleLetter</t>
-  </si>
-  <si>
-    <t>DragMultiLetter</t>
-  </si>
-  <si>
-    <t>PencilAnimaLetter</t>
-  </si>
-  <si>
-    <t>页码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KA102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecallOpenCard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1静态页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2单词弹卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tatic</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3六词汇卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4左右切卡带文本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5左右切卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6抽卡游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7转盘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8跑马灯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9骰子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10骰子加选图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11图片三拖三</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12图片四拖四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13句子四拖四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14图片三选一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15字母三选一判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16字母四拖二判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17字母大小写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PencilAnima</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18单词书写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseCircle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19三勾一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puzzle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20拼图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragPic8In5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21图片八拖五判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragPic6In4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22图片六拖四判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23八图分两类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatchEntity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24图片六选四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseIn2Word</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25单词二选一两组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>26记忆翻卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WordLink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>27小火车连连看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenCalendar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>28翻翻卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slots</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>29老虎机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatchBone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30小狗吃骨头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseAnswer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>31选择题三选一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseIn3Pic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>32图片三勾一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragMultiWord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>33单词四拖二判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeWord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>34单词三选一判断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaySound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>35音频播放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerPopGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>36区域弹卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeChat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>37微信聊天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadWordPic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>38点读单词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayUFO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>39播放UFO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayLetterSound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40字母音频播放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaySomeSound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>41复数音频播放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC167</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>omePage</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认首页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>42文字摘要</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muli</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,15 +451,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -184,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -195,20 +510,139 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -219,6 +653,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="H2:L23" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="列1" headerRowDxfId="3"/>
+    <tableColumn id="2" name="列2" headerRowDxfId="2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4" headerRowDxfId="1"/>
+    <tableColumn id="5" name="列5" headerRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,11 +954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -519,16 +966,24 @@
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -536,154 +991,493 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
+      <c r="B10" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/config/target.xlsx
+++ b/config/target.xlsx
@@ -958,7 +958,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3"/>
       <c r="H3" s="3" t="s">
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3"/>
       <c r="H4" s="3" t="s">
@@ -1051,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3"/>
       <c r="H5" s="3" t="s">
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3"/>
       <c r="H7" s="3" t="s">
@@ -1114,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3"/>
       <c r="H8" s="3" t="s">
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3"/>
       <c r="H9" s="3" t="s">
@@ -1156,7 +1156,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3"/>
       <c r="H10" s="3" t="s">
@@ -1177,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3"/>
       <c r="H11" s="3" t="s">
@@ -1198,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -1219,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3"/>
       <c r="H13" s="3" t="s">
@@ -1240,7 +1240,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3"/>
       <c r="H14" s="3" t="s">
@@ -1261,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3"/>
       <c r="H15" s="3" t="s">
@@ -1282,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3"/>
       <c r="H16" s="3" t="s">
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3"/>
       <c r="H17" s="3" t="s">
@@ -1324,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3"/>
       <c r="H18" s="3" t="s">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3"/>
       <c r="H19" s="3" t="s">
@@ -1366,7 +1366,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3"/>
       <c r="H20" s="3" t="s">

--- a/config/target.xlsx
+++ b/config/target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nodejs\eduCoursesAuto\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1ED680-2900-4C8B-B3B8-AF10F563EEFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657212C2-E75C-4A7F-8014-AEAF1421601D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>模版名称</t>
   </si>
@@ -369,10 +369,6 @@
   </si>
   <si>
     <t>41复数音频播放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC167</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -405,27 +401,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>omePage</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>42文字摘要</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Muli</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KA200</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -986,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1003,10 +987,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="4"/>
     </row>
@@ -1021,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>44</v>
@@ -1033,12 +1017,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3"/>
       <c r="H3" s="3" t="s">
@@ -1059,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3"/>
       <c r="H4" s="3" t="s">
@@ -1080,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3"/>
       <c r="H5" s="3" t="s">
@@ -1101,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -1122,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C7" s="3"/>
       <c r="H7" s="3" t="s">
@@ -1143,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C8" s="3"/>
       <c r="H8" s="3" t="s">
@@ -1164,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3"/>
       <c r="H9" s="3" t="s">
@@ -1185,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3"/>
       <c r="H10" s="3" t="s">
@@ -1206,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3"/>
       <c r="H11" s="3" t="s">
@@ -1227,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -1248,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3"/>
       <c r="H13" s="3" t="s">
@@ -1269,7 +1253,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3"/>
       <c r="H14" s="3" t="s">
@@ -1290,7 +1274,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3"/>
       <c r="H15" s="3" t="s">
@@ -1311,7 +1295,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3"/>
       <c r="H16" s="3" t="s">
@@ -1332,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3"/>
       <c r="H17" s="3" t="s">
@@ -1352,9 +1336,7 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
@@ -1373,9 +1355,7 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
@@ -1394,9 +1374,7 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="H20" s="3" t="s">
         <v>38</v>
@@ -1415,6 +1393,7 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
+      <c r="B21" s="3"/>
       <c r="H21" s="3" t="s">
         <v>40</v>
       </c>
@@ -1432,6 +1411,7 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
+      <c r="B22" s="3"/>
       <c r="H22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1449,52 +1429,61 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
+      <c r="B23" s="3"/>
       <c r="K23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>26</v>
       </c>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>27</v>
       </c>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>28</v>
       </c>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>29</v>
       </c>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">

--- a/config/target.xlsx
+++ b/config/target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nodejs\eduCoursesAuto\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F05705-F90E-49FE-954E-887826934439}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E01A83-E357-404C-B783-38B537D155E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>模版名称</t>
   </si>
@@ -405,7 +405,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>KA200</t>
+    <t>PC173</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +967,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3"/>
       <c r="H3" s="3" t="s">
@@ -1039,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3"/>
       <c r="H4" s="3" t="s">
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3"/>
       <c r="H5" s="3" t="s">
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -1102,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3"/>
       <c r="H7" s="3" t="s">
@@ -1123,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3"/>
       <c r="H8" s="3" t="s">
@@ -1144,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3"/>
       <c r="H9" s="3" t="s">
@@ -1165,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3"/>
       <c r="H10" s="3" t="s">
@@ -1186,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3"/>
       <c r="H11" s="3" t="s">
@@ -1207,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -1228,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3"/>
       <c r="H13" s="3" t="s">
@@ -1249,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3"/>
       <c r="H14" s="3" t="s">
@@ -1270,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3"/>
       <c r="H15" s="3" t="s">
@@ -1291,7 +1291,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3"/>
       <c r="H16" s="3" t="s">
@@ -1312,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3"/>
       <c r="H17" s="3" t="s">
@@ -1332,7 +1332,9 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
@@ -1351,7 +1353,9 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="H19" s="3" t="s">
         <v>14</v>
@@ -1370,7 +1374,9 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="H20" s="3" t="s">
         <v>38</v>
@@ -1389,7 +1395,9 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>40</v>
       </c>
@@ -1407,7 +1415,9 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1425,7 +1435,9 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="K23" s="3" t="s">
         <v>87</v>
       </c>
@@ -1437,19 +1449,25 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">

--- a/config/target.xlsx
+++ b/config/target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nodejs\eduCoursesAuto\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E01A83-E357-404C-B783-38B537D155E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F1154A-4A58-4563-98EC-DB01D332618A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>模版名称</t>
   </si>
@@ -405,7 +405,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PC173</t>
+    <t>KA177</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +967,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1102,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3"/>
       <c r="H7" s="3" t="s">
@@ -1123,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3"/>
       <c r="H8" s="3" t="s">
@@ -1165,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3"/>
       <c r="H10" s="3" t="s">
@@ -1186,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3"/>
       <c r="H11" s="3" t="s">
@@ -1207,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -1228,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3"/>
       <c r="H13" s="3" t="s">
@@ -1249,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3"/>
       <c r="H14" s="3" t="s">
@@ -1270,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3"/>
       <c r="H15" s="3" t="s">
@@ -1291,7 +1291,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3"/>
       <c r="H16" s="3" t="s">
@@ -1312,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3"/>
       <c r="H17" s="3" t="s">
@@ -1333,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3"/>
       <c r="H18" s="3" t="s">
@@ -1354,7 +1354,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3"/>
       <c r="H19" s="3" t="s">
@@ -1375,7 +1375,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3"/>
       <c r="H20" s="3" t="s">
@@ -1396,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>40</v>
@@ -1436,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>87</v>
@@ -1450,24 +1450,20 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
